--- a/6_Analysis_Excels/QoQ - ifo_naive_ifoCAST.xlsx
+++ b/6_Analysis_Excels/QoQ - ifo_naive_ifoCAST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/4_Analysis_Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/6_Analysis_Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{C8633DC1-0678-44D8-A406-195500882EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C0C1366-AA11-4696-8360-52EB6CA122D0}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="8_{C8633DC1-0678-44D8-A406-195500882EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F390B8E-826C-4A94-9279-440EF1131AB5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12892,7 +12892,7 @@
   <dimension ref="B2:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13075,38 +13075,38 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>-5.6293087362426393E-2</v>
+        <v>8.6342364894636901E-3</v>
       </c>
       <c r="D11">
-        <v>1.1286404467097699</v>
+        <v>1.0812319808024791</v>
       </c>
       <c r="E11">
-        <v>6.0047450604218247</v>
+        <v>8.1122716097907226</v>
       </c>
       <c r="F11">
-        <v>2.4504581327624888</v>
+        <v>2.8482049802973668</v>
       </c>
       <c r="G11">
-        <v>2.4774938156659179</v>
+        <v>2.8796645821211899</v>
       </c>
       <c r="H11">
         <v>46</v>
       </c>
       <c r="K11">
         <f>D11/$D$3</f>
-        <v>1.8663701259364593</v>
+        <v>1.7879733745673336</v>
       </c>
       <c r="L11">
         <f>E11/$E$3</f>
-        <v>6.5279452566748875</v>
+        <v>8.8191029665914886</v>
       </c>
       <c r="M11">
         <f>F11/$F$3</f>
-        <v>2.5549843941352637</v>
+        <v>2.969697453167401</v>
       </c>
       <c r="N11">
         <f>G11/$G$3</f>
-        <v>2.5891927536039381</v>
+        <v>3.0094955723770478</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
@@ -13155,38 +13155,38 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>3.5148316999999998E-2</v>
+        <v>8.2663867298475718E-2</v>
       </c>
       <c r="D15">
-        <v>1.423122695</v>
+        <v>1.2667108454297911</v>
       </c>
       <c r="E15">
-        <v>9.937334559</v>
+        <v>10.58350078540567</v>
       </c>
       <c r="F15">
-        <v>3.1523538119999999</v>
+        <v>3.2532292857106881</v>
       </c>
       <c r="G15">
-        <v>3.1877765899999999</v>
+        <v>3.2881156496309241</v>
       </c>
       <c r="H15">
         <v>46</v>
       </c>
       <c r="K15">
         <f>D15/$D$3</f>
-        <v>2.3533390915000525</v>
+        <v>2.0946894885806091</v>
       </c>
       <c r="L15">
         <f>E15/$E$3</f>
-        <v>10.803185704916244</v>
+        <v>11.505653121974593</v>
       </c>
       <c r="M15">
         <f>F15/$F$3</f>
-        <v>3.2868199977662975</v>
+        <v>3.3919983958935309</v>
       </c>
       <c r="N15">
         <f>G15/$G$3</f>
-        <v>3.3314989505706465</v>
+        <v>3.4363618424402644</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
@@ -13232,38 +13232,38 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>8.6614482886102073E-2</v>
+        <v>0.13694201739237261</v>
       </c>
       <c r="D19">
-        <v>0.92706438243894063</v>
+        <v>0.90200216721233928</v>
       </c>
       <c r="E19">
-        <v>4.4287990520643836</v>
+        <v>4.5672053599729097</v>
       </c>
       <c r="F19">
-        <v>2.104471204855126</v>
+        <v>2.1371020939517389</v>
       </c>
       <c r="G19">
-        <v>2.1264479786181418</v>
+        <v>2.1562766428209801</v>
       </c>
       <c r="H19">
         <v>46</v>
       </c>
       <c r="K19">
         <f>D19/$D$3</f>
-        <v>1.5330349654292554</v>
+        <v>1.4915909697572245</v>
       </c>
       <c r="L19">
         <f>E19/$E$3</f>
-        <v>4.8146852986726092</v>
+        <v>4.9651511039838967</v>
       </c>
       <c r="M19">
         <f>F19/$F$3</f>
-        <v>2.194239115707854</v>
+        <v>2.2282619016081449</v>
       </c>
       <c r="N19">
         <f>G19/$G$3</f>
-        <v>2.2223198549837559</v>
+        <v>2.2534933581082894</v>
       </c>
     </row>
   </sheetData>
